--- a/correlation/bmw/minutely/correlation/bmw_correlation_volume_with_semantics.xlsx
+++ b/correlation/bmw/minutely/correlation/bmw_correlation_volume_with_semantics.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.002943342132360418</v>
+        <v>-5.142545501846706E-05</v>
       </c>
       <c r="D2">
-        <v>-0.0003296829766361753</v>
+        <v>0.0005399487869596458</v>
       </c>
       <c r="E2">
-        <v>0.003019018596060633</v>
+        <v>0.001515823437324222</v>
       </c>
       <c r="F2">
-        <v>0.004668778185716193</v>
+        <v>0.0009534764724979295</v>
       </c>
       <c r="G2">
-        <v>-0.003931479802030788</v>
+        <v>-0.004811962422454801</v>
       </c>
       <c r="H2">
-        <v>-0.002754609880347887</v>
+        <v>-0.001018806748909424</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.002943342132360418</v>
+        <v>-5.142545501846706E-05</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4669550190951516</v>
+        <v>0.253096287990568</v>
       </c>
       <c r="E3">
-        <v>0.1836946351112145</v>
+        <v>0.01789381394522678</v>
       </c>
       <c r="F3">
-        <v>-0.8627669066382362</v>
+        <v>-0.06603110186124951</v>
       </c>
       <c r="G3">
-        <v>0.7213222711972983</v>
+        <v>-0.1778159322687564</v>
       </c>
       <c r="H3">
-        <v>0.9748824931315302</v>
+        <v>0.03964796440603316</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.0003296829766361753</v>
+        <v>0.0005399487869596458</v>
       </c>
       <c r="C4">
-        <v>0.4669550190951516</v>
+        <v>0.253096287990568</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7669400403934507</v>
+        <v>0.212294872686344</v>
       </c>
       <c r="F4">
-        <v>-0.4186224088239164</v>
+        <v>0.1204333296248592</v>
       </c>
       <c r="G4">
-        <v>0.7372400925121829</v>
+        <v>0.0518629377170444</v>
       </c>
       <c r="H4">
-        <v>0.2980007630493137</v>
+        <v>0.03911723593372516</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003019018596060633</v>
+        <v>0.001515823437324222</v>
       </c>
       <c r="C5">
-        <v>0.1836946351112145</v>
+        <v>0.01789381394522678</v>
       </c>
       <c r="D5">
-        <v>0.7669400403934507</v>
+        <v>0.212294872686344</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.07197698012941726</v>
+        <v>-0.1754382178995817</v>
       </c>
       <c r="G5">
-        <v>0.197113839064185</v>
+        <v>0.5091465182484737</v>
       </c>
       <c r="H5">
-        <v>0.06332384367500569</v>
+        <v>0.1570773061584709</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.004668778185716193</v>
+        <v>0.0009534764724979295</v>
       </c>
       <c r="C6">
-        <v>-0.8627669066382362</v>
+        <v>-0.06603110186124951</v>
       </c>
       <c r="D6">
-        <v>-0.4186224088239164</v>
+        <v>0.1204333296248592</v>
       </c>
       <c r="E6">
-        <v>0.07197698012941726</v>
+        <v>-0.1754382178995817</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.8909280046213595</v>
+        <v>-0.2626360586043101</v>
       </c>
       <c r="H6">
-        <v>-0.7840247807637292</v>
+        <v>-0.01061878057399678</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.003931479802030788</v>
+        <v>-0.004811962422454801</v>
       </c>
       <c r="C7">
-        <v>0.7213222711972983</v>
+        <v>-0.1778159322687564</v>
       </c>
       <c r="D7">
-        <v>0.7372400925121829</v>
+        <v>0.0518629377170444</v>
       </c>
       <c r="E7">
-        <v>0.197113839064185</v>
+        <v>0.5091465182484737</v>
       </c>
       <c r="F7">
-        <v>-0.8909280046213595</v>
+        <v>-0.2626360586043101</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5753159594438715</v>
+        <v>0.5172784235038043</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.002754609880347887</v>
+        <v>-0.001018806748909424</v>
       </c>
       <c r="C8">
-        <v>0.9748824931315302</v>
+        <v>0.03964796440603316</v>
       </c>
       <c r="D8">
-        <v>0.2980007630493137</v>
+        <v>0.03911723593372516</v>
       </c>
       <c r="E8">
-        <v>0.06332384367500569</v>
+        <v>0.1570773061584709</v>
       </c>
       <c r="F8">
-        <v>-0.7840247807637292</v>
+        <v>-0.01061878057399678</v>
       </c>
       <c r="G8">
-        <v>0.5753159594438715</v>
+        <v>0.5172784235038043</v>
       </c>
       <c r="H8">
         <v>1</v>
